--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW20.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW20.xlsx
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>3.566593854644602</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>3.0634693295223183</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>3.653838731224174</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>3.4898080314058006</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>3.6427647654231183</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>3.1627766240393713</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>3.8637219387286312</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>3.5711688371990844</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.048636616929839</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>3.0211089374357654</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>3.566593854644602</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9192947927545945</v>
+        <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7744477986678605</v>
+        <v>0.0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8032889297971617</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8101333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9443844392875935</v>
+        <v>0.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9448939660121513</v>
+        <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.917157098777179</v>
+        <v>0.0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9337862569246824</v>
+        <v>0.0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9876770050065723</v>
+        <v>0.0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9323759839009756</v>
+        <v>0.0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9192947927545945</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>2.5987203048257888</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>2.5704133111477976</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>3.0105405170346144</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>3.0086600704320055</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>2.947313177069465</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>2.846410731538186</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>2.9369211123139936</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>2.6601405775809166</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.0012068283076525</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>2.9831032585524144</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>2.5987203048257888</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21225136371559697</v>
+        <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20993938039069462</v>
+        <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.24588691944841354</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.24573333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.24072280497761353</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2324815634609785</v>
+        <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.23987402955839138</v>
+        <v>0.0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.21726788535813432</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.24512458725086392</v>
+        <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2436459720410877</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.21225136371559697</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7817549605358012</v>
+        <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6748800496099686</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.79180978479317</v>
+        <v>0.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7854897526211427</v>
+        <v>0.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7837802859287207</v>
+        <v>0.0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.765980920909775</v>
+        <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.6549222110316903</v>
+        <v>0.0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.7531764640093749</v>
+        <v>0.0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.6432729644561371</v>
+        <v>0.0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.7640274306160736</v>
+        <v>0.0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.7817549605358012</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -7095,37 +7095,37 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="n">
-        <v>3.783100044784766</v>
+        <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>3.577781681745651</v>
+        <v>0.0</v>
       </c>
       <c r="D185" t="n">
-        <v>3.7395883525475915</v>
+        <v>0.0</v>
       </c>
       <c r="E185" t="n">
-        <v>3.682174931309353</v>
+        <v>0.0</v>
       </c>
       <c r="F185" t="n">
-        <v>3.17162636885524</v>
+        <v>0.0</v>
       </c>
       <c r="G185" t="n">
-        <v>3.3263761376218497</v>
+        <v>0.0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.684098963928025</v>
+        <v>0.0</v>
       </c>
       <c r="I185" t="n">
-        <v>3.7718783756381553</v>
+        <v>0.0</v>
       </c>
       <c r="J185" t="n">
-        <v>3.7569124516953245</v>
+        <v>0.0</v>
       </c>
       <c r="K185" t="n">
-        <v>3.2047204500886624</v>
+        <v>0.0</v>
       </c>
       <c r="L185" t="n">
-        <v>3.783100044784766</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5.42022333627034</v>
+        <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5.126054170894025</v>
+        <v>0.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5.357882111646987</v>
+        <v>0.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5.275623233497671</v>
+        <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>4.544136569187027</v>
+        <v>0.0</v>
       </c>
       <c r="G187" t="n">
-        <v>4.765853758270493</v>
+        <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5.278379884491835</v>
+        <v>0.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5.404145529112105</v>
+        <v>0.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5.382703154011397</v>
+        <v>0.0</v>
       </c>
       <c r="K187" t="n">
-        <v>4.591551998139561</v>
+        <v>0.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5.42022333627034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>1.1809267909731422</v>
+        <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>1.4525372542140298</v>
+        <v>0.0</v>
       </c>
       <c r="D199" t="n">
-        <v>1.184203465237097</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>1.305288842820204</v>
+        <v>0.0</v>
       </c>
       <c r="F199" t="n">
-        <v>1.2263529297306548</v>
+        <v>0.0</v>
       </c>
       <c r="G199" t="n">
-        <v>1.3405547828378868</v>
+        <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>1.1542766044021497</v>
+        <v>0.0</v>
       </c>
       <c r="I199" t="n">
-        <v>1.346555446959936</v>
+        <v>0.0</v>
       </c>
       <c r="J199" t="n">
-        <v>1.1989651744415923</v>
+        <v>0.0</v>
       </c>
       <c r="K199" t="n">
-        <v>1.3994126746871143</v>
+        <v>0.0</v>
       </c>
       <c r="L199" t="n">
-        <v>1.1809267909731422</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.24000074539890495</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2952003683850495</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.26527494983797667</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.24923273780159494</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2724420765016561</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.23458460555776595</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.2736615965203301</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.24366670124926876</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.28440381538708037</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.24000074539890495</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.0731651949653715</v>
+        <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>1.0294400991779094</v>
+        <v>0.0</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9993000878079616</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>1.0071304713891898</v>
+        <v>0.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.8657527000506632</v>
+        <v>0.0</v>
       </c>
       <c r="G213" t="n">
-        <v>1.0169922141450887</v>
+        <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>0.8742376339340093</v>
+        <v>0.0</v>
       </c>
       <c r="I213" t="n">
-        <v>1.035954157504292</v>
+        <v>0.0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.021327746737823</v>
+        <v>0.0</v>
       </c>
       <c r="K213" t="n">
-        <v>0.9740538496260366</v>
+        <v>0.0</v>
       </c>
       <c r="L213" t="n">
-        <v>1.0731651949653715</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>0.44557655771268606</v>
+        <v>0.0</v>
       </c>
       <c r="C299" t="n">
-        <v>0.3753701064971773</v>
+        <v>0.0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.38934922617719575</v>
+        <v>0.0</v>
       </c>
       <c r="E299" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F299" t="n">
-        <v>0.4577373557771499</v>
+        <v>0.0</v>
       </c>
       <c r="G299" t="n">
-        <v>0.4579843202609917</v>
+        <v>0.0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.4445404305297551</v>
+        <v>0.0</v>
       </c>
       <c r="I299" t="n">
-        <v>0.4526004816726777</v>
+        <v>0.0</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4787209973246141</v>
+        <v>0.0</v>
       </c>
       <c r="K299" t="n">
-        <v>0.4519169309724117</v>
+        <v>0.0</v>
       </c>
       <c r="L299" t="n">
-        <v>0.44557655771268606</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
@@ -14163,37 +14163,37 @@
         <v>370.0</v>
       </c>
       <c r="B371" t="n">
-        <v>3.478767373546193</v>
+        <v>0.0</v>
       </c>
       <c r="C371" t="n">
-        <v>3.540951014628184</v>
+        <v>0.0</v>
       </c>
       <c r="D371" t="n">
-        <v>3.397926846889048</v>
+        <v>0.0</v>
       </c>
       <c r="E371" t="n">
-        <v>2.9498081450323714</v>
+        <v>0.0</v>
       </c>
       <c r="F371" t="n">
-        <v>3.4233365148967176</v>
+        <v>0.0</v>
       </c>
       <c r="G371" t="n">
-        <v>3.3578400491005467</v>
+        <v>0.0</v>
       </c>
       <c r="H371" t="n">
-        <v>3.0292995217624648</v>
+        <v>0.0</v>
       </c>
       <c r="I371" t="n">
-        <v>2.8582555710374216</v>
+        <v>0.0</v>
       </c>
       <c r="J371" t="n">
-        <v>3.3601152946789283</v>
+        <v>0.0</v>
       </c>
       <c r="K371" t="n">
-        <v>3.360265543370194</v>
+        <v>0.0</v>
       </c>
       <c r="L371" t="n">
-        <v>3.478767373546193</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>1.7570037814495265</v>
+        <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>1.5444567245789567</v>
+        <v>0.0</v>
       </c>
       <c r="D397" t="n">
-        <v>1.6700848663074912</v>
+        <v>0.0</v>
       </c>
       <c r="E397" t="n">
-        <v>1.7106498980471057</v>
+        <v>0.0</v>
       </c>
       <c r="F397" t="n">
-        <v>1.6901375680274626</v>
+        <v>0.0</v>
       </c>
       <c r="G397" t="n">
-        <v>1.72974281947019</v>
+        <v>0.0</v>
       </c>
       <c r="H397" t="n">
-        <v>1.726249913799792</v>
+        <v>0.0</v>
       </c>
       <c r="I397" t="n">
-        <v>1.4639360336613303</v>
+        <v>0.0</v>
       </c>
       <c r="J397" t="n">
-        <v>1.734130714606111</v>
+        <v>0.0</v>
       </c>
       <c r="K397" t="n">
-        <v>1.6848962396866813</v>
+        <v>0.0</v>
       </c>
       <c r="L397" t="n">
-        <v>1.7570037814495265</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -15721,37 +15721,37 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>0.28677555865210747</v>
+        <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.27196786618750446</v>
+        <v>0.0</v>
       </c>
       <c r="D412" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="E412" t="n">
-        <v>0.2844297483457042</v>
+        <v>0.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.24238128117410257</v>
+        <v>0.0</v>
       </c>
       <c r="G412" t="n">
-        <v>0.2734536110834182</v>
+        <v>0.0</v>
       </c>
       <c r="H412" t="n">
-        <v>0.28279903736594314</v>
+        <v>0.0</v>
       </c>
       <c r="I412" t="n">
-        <v>0.2992183621607327</v>
+        <v>0.0</v>
       </c>
       <c r="J412" t="n">
-        <v>0.2650293379535219</v>
+        <v>0.0</v>
       </c>
       <c r="K412" t="n">
-        <v>0.24587949693437172</v>
+        <v>0.0</v>
       </c>
       <c r="L412" t="n">
-        <v>0.28677555865210747</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>0.38234655904705267</v>
+        <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.3507113541294813</v>
+        <v>0.0</v>
       </c>
       <c r="E513" t="n">
-        <v>0.34479574097180143</v>
+        <v>0.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.4075385803904904</v>
+        <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>0.4078481700787572</v>
+        <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.4060390939582647</v>
+        <v>0.0</v>
       </c>
       <c r="I513" t="n">
-        <v>0.34521711850064235</v>
+        <v>0.0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.3475557440530099</v>
+        <v>0.0</v>
       </c>
       <c r="K513" t="n">
-        <v>0.4342184066644371</v>
+        <v>0.0</v>
       </c>
       <c r="L513" t="n">
-        <v>0.38234655904705267</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>1.4009257832528248</v>
+        <v>0.0</v>
       </c>
       <c r="C549" t="n">
-        <v>1.1801914875273571</v>
+        <v>0.0</v>
       </c>
       <c r="D549" t="n">
-        <v>1.224142877805709</v>
+        <v>0.0</v>
       </c>
       <c r="E549" t="n">
-        <v>1.2345731570375518</v>
+        <v>0.0</v>
       </c>
       <c r="F549" t="n">
-        <v>1.4391602353543729</v>
+        <v>0.0</v>
       </c>
       <c r="G549" t="n">
-        <v>1.4399367100296514</v>
+        <v>0.0</v>
       </c>
       <c r="H549" t="n">
-        <v>1.3976681224531893</v>
+        <v>0.0</v>
       </c>
       <c r="I549" t="n">
-        <v>1.4230095217368959</v>
+        <v>0.0</v>
       </c>
       <c r="J549" t="n">
-        <v>1.5051343624971503</v>
+        <v>0.0</v>
       </c>
       <c r="K549" t="n">
-        <v>1.4208603875789434</v>
+        <v>0.0</v>
       </c>
       <c r="L549" t="n">
-        <v>1.4009257832528248</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -21193,37 +21193,37 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="n">
-        <v>1.1198020675475562</v>
+        <v>0.0</v>
       </c>
       <c r="C556" t="n">
-        <v>1.1076044370492657</v>
+        <v>0.0</v>
       </c>
       <c r="D556" t="n">
-        <v>1.297257534468315</v>
+        <v>0.0</v>
       </c>
       <c r="E556" t="n">
-        <v>1.2964472402671252</v>
+        <v>0.0</v>
       </c>
       <c r="F556" t="n">
-        <v>1.2700125455070066</v>
+        <v>0.0</v>
       </c>
       <c r="G556" t="n">
-        <v>1.2265331580112808</v>
+        <v>0.0</v>
       </c>
       <c r="H556" t="n">
-        <v>1.2655345508656999</v>
+        <v>0.0</v>
       </c>
       <c r="I556" t="n">
-        <v>1.1462683818688035</v>
+        <v>0.0</v>
       </c>
       <c r="J556" t="n">
-        <v>1.2932355995510065</v>
+        <v>0.0</v>
       </c>
       <c r="K556" t="n">
-        <v>1.2854346773800975</v>
+        <v>0.0</v>
       </c>
       <c r="L556" t="n">
-        <v>1.1198020675475562</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>0.749797152176277</v>
+        <v>0.0</v>
       </c>
       <c r="C559" t="n">
-        <v>0.644026393996041</v>
+        <v>0.0</v>
       </c>
       <c r="D559" t="n">
-        <v>0.7681384499711313</v>
+        <v>0.0</v>
       </c>
       <c r="E559" t="n">
-        <v>0.733654638075046</v>
+        <v>0.0</v>
       </c>
       <c r="F559" t="n">
-        <v>0.7658103945885101</v>
+        <v>0.0</v>
       </c>
       <c r="G559" t="n">
-        <v>0.6649035472839745</v>
+        <v>0.0</v>
       </c>
       <c r="H559" t="n">
-        <v>0.8122617333305554</v>
+        <v>0.0</v>
       </c>
       <c r="I559" t="n">
-        <v>0.750758940658624</v>
+        <v>0.0</v>
       </c>
       <c r="J559" t="n">
-        <v>0.6409081455735559</v>
+        <v>0.0</v>
       </c>
       <c r="K559" t="n">
-        <v>0.6351210622857297</v>
+        <v>0.0</v>
       </c>
       <c r="L559" t="n">
-        <v>0.749797152176277</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="560">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>5.184620218117569</v>
+        <v>0.0</v>
       </c>
       <c r="C568" t="n">
-        <v>4.440115869231934</v>
+        <v>0.0</v>
       </c>
       <c r="D568" t="n">
-        <v>5.276297751100464</v>
+        <v>0.0</v>
       </c>
       <c r="E568" t="n">
-        <v>5.251438869867757</v>
+        <v>0.0</v>
       </c>
       <c r="F568" t="n">
-        <v>4.378850630485049</v>
+        <v>0.0</v>
       </c>
       <c r="G568" t="n">
-        <v>5.452315533704007</v>
+        <v>0.0</v>
       </c>
       <c r="H568" t="n">
-        <v>4.918871600514903</v>
+        <v>0.0</v>
       </c>
       <c r="I568" t="n">
-        <v>5.189377503286291</v>
+        <v>0.0</v>
       </c>
       <c r="J568" t="n">
-        <v>5.260081154036022</v>
+        <v>0.0</v>
       </c>
       <c r="K568" t="n">
-        <v>5.089647977954786</v>
+        <v>0.0</v>
       </c>
       <c r="L568" t="n">
-        <v>5.184620218117569</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="569">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>2.150824061976614</v>
+        <v>0.0</v>
       </c>
       <c r="C593" t="n">
-        <v>2.6455086811152126</v>
+        <v>0.0</v>
       </c>
       <c r="D593" t="n">
-        <v>2.1567918746336256</v>
+        <v>0.0</v>
       </c>
       <c r="E593" t="n">
-        <v>2.377324887899131</v>
+        <v>0.0</v>
       </c>
       <c r="F593" t="n">
-        <v>2.233558769182159</v>
+        <v>0.0</v>
       </c>
       <c r="G593" t="n">
-        <v>2.4415548070931488</v>
+        <v>0.0</v>
       </c>
       <c r="H593" t="n">
-        <v>2.1022860298384645</v>
+        <v>0.0</v>
       </c>
       <c r="I593" t="n">
-        <v>2.452483827317093</v>
+        <v>0.0</v>
       </c>
       <c r="J593" t="n">
-        <v>2.1836774018277096</v>
+        <v>0.0</v>
       </c>
       <c r="K593" t="n">
-        <v>2.5487527900622853</v>
+        <v>0.0</v>
       </c>
       <c r="L593" t="n">
-        <v>2.150824061976614</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.7338098634983696</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.8476892202727878</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.8212550485369017</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.7116732549373166</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.8473824435657553</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.8688417895699491</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.7316562436028023</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.8411781949990735</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.8625534286544064</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.8709467968883622</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.7338098634983696</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>0.0349356340510535</v>
+        <v>0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>0.03741370685072955</v>
+        <v>0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>0.04032044343557102</v>
+        <v>0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>0.03840883083151194</v>
+        <v>0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>0.03772940268489018</v>
+        <v>0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>0.03255373761968223</v>
+        <v>0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>0.03342718717955245</v>
+        <v>0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>0.037846384194678825</v>
+        <v>0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>0.03665593865351911</v>
+        <v>0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>0.03657159368035711</v>
+        <v>0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>0.0349356340510535</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
